--- a/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
+++ b/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
@@ -451,799 +451,1079 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1339</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>519714</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>交银施罗德消费新驱动股票</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>84.94</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>5.94</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7680</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001178</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源再融资主题精选股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>80.64</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>519710</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>交银施罗德策略回报灵活配置混合</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>77.55</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>5.95</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
         <is>
           <t>000978</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>景顺长城量化精选股票</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>85.04</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1.46</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>160616</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>鹏华中证500指数(LOF) A</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>94.95</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>0.63</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006938</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>008757</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>九泰聚鑫混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>37.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>008758</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>九泰聚鑫混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>37.68</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004868</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>交银施罗德股息优化混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>85.81</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007994</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007995</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>44.60</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002005</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>工银瑞信新得利混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>165528</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>80.05</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>56.08</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>008188</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>前海开源稳健增长三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>58.26</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005004</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>交银施罗德品质升级混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>87.83</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>005164</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富荣福锦混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>005165</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>富荣福锦混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>7</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1253,7 +1533,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1274,15 +1554,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1294,26 +1584,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519714</t>
+          <t>010454</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德消费新驱动股票</t>
+          <t>交银施罗德内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>89.86</t>
+          <t>48.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>9.55</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>78.49</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7528</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1322,26 +1622,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>519714</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>交银施罗德消费新驱动股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>15.47</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4774</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -1350,26 +1660,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>200012</t>
+          <t>005004</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>长城中小盘成长混合</t>
+          <t>交银施罗德品质升级混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>85.41</t>
+          <t>8.10</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.76</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7428</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1378,26 +1698,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519710</t>
+          <t>004868</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德策略回报灵活配置混合</t>
+          <t>交银施罗德股息优化混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>79.82</t>
+          <t>6.86</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>9.22</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6174</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1406,26 +1736,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>007345</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>富国科技创新灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5587</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -1434,26 +1774,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>519710</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>交银施罗德策略回报灵活配置混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>79.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4711</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -1462,25 +1812,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>007345</t>
+          <t>660012</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>富国科技创新灵活配置混合</t>
+          <t>农银消费主题混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.56</t>
+          <t>12.44</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.30</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3832</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006048</t>
+          <t>200012</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>长城中证500指数增强A</t>
+          <t>长城中小盘成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>11.35</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3133</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1518,25 +1888,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>007413</t>
+          <t>005164</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>长城中证500指数增强C</t>
+          <t>富荣福锦混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>3.35</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>3.72</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2295</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006478</t>
+          <t>005165</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长盛多因子策略优选股票</t>
+          <t>富荣福锦混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>93.87</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2281</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>010454</t>
+          <t>161030</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>交银施罗德内需增长一年持有期混合</t>
+          <t>富国中证体育产业指数</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>78.49</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -1612,15 +2012,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>43.02</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2.08</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>010703</t>
+          <t>001940</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>财通智选消费股票A</t>
+          <t>农银汇理现代农业加灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>68.57</t>
+          <t>1.54</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2.61</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>10</v>
+          <t>76.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1658,25 +2078,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>010704</t>
+          <t>010703</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>财通智选消费股票C</t>
+          <t>财通智选消费股票A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>68.57</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>2.61</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>001242</t>
+          <t>008757</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数A</t>
+          <t>九泰聚鑫混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>2</v>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="17">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001243</t>
+          <t>008758</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>博时中证淘金大数据100指数I</t>
+          <t>九泰聚鑫混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.98</t>
+          <t>3.02</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>34.34</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>001242</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>博时中证淘金大数据100指数A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>1</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>001243</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>博时中证淘金大数据100指数I</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>92.82</t>
+          <t>3.50</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>1</v>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>006478</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>长盛多因子策略优选股票</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>001940</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>76.81</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4.33</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>7</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>010704</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>财通智选消费股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>4.98</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>68.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>660012</t>
+          <t>009608</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>农银消费主题混合A</t>
+          <t>广发中证500指数增强A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>9</v>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>960033</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>农银消费主题混合H</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>85.88</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>3.08</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>9</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -1938,25 +2458,35 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>005004</t>
+          <t>001351</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>交银施罗德品质升级混合</t>
+          <t>诺安中证500指数增强A</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>88.27</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>9.17</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>005164</t>
+          <t>005965</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>富荣福锦混合A</t>
+          <t>安信中证500指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>2</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>005165</t>
+          <t>005966</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>富荣福锦混合C</t>
+          <t>安信中证500指数增强C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>84.20</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>6.85</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>2</v>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="28">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>005179</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>信达澳银新起点定期开放灵活配置混合</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>61.03</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2.54</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>6</v>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>005965</t>
+          <t>007943</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>安信中证500指数增强A</t>
+          <t>富安达中证 500 指数增强</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>4</v>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="30">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>005966</t>
+          <t>009609</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>安信中证500指数增强C</t>
+          <t>广发中证500指数增强C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>4</v>
+          <t>85.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="31">
@@ -2106,25 +2686,35 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>007943</t>
+          <t>007413</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>富安达中证 500 指数增强</t>
+          <t>长城中证500指数增强C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>91.29</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>1.65</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>004868</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>交银施罗德股息优化混合</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>89.87</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>9.00</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>4</v>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -2162,25 +2762,35 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>008757</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>九泰聚鑫混合A</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>34.34</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2190,25 +2800,35 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>008758</t>
+          <t>005179</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>九泰聚鑫混合C</t>
+          <t>信达澳银新起点定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>34.34</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
+          <t>61.03</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2218,26 +2838,30 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>009608</t>
+          <t>010355</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>广发中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>85.01</t>
-        </is>
-      </c>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>2</v>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -2246,26 +2870,30 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>009609</t>
+          <t>960033</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>广发中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>85.01</t>
-        </is>
-      </c>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>2</v>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
+++ b/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2846,7 +2847,6 @@
           <t>诺安中证500指数增强C</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>92.82</t>
@@ -2878,7 +2878,6 @@
           <t>农银消费主题混合H</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>85.88</t>
@@ -2894,6 +2893,1200 @@
       </c>
       <c r="H36" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.6120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0677</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010815</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理新兴消费股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>53.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>54.47</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5344</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.5265</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.13</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.99</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4312</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.69</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0102</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>660012</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>农银消费主题混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4408</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3913</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3765</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2639</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.51</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2612</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>502000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1110</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>62.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009300</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得中证500指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000649</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城久鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001296</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城转型成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>53.69</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004794</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004795</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富荣福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>960033</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>农银消费主题混合H</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
+++ b/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4092,4 +4093,1010 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0223</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2283</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.20</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.69</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8299</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.50</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5284</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3914</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010585</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2588</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>51.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>51.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1455</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1037</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0673</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>620007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001375</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>金元顺安优质精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>68.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010586</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信医药消费股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>31.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0111</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011548</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>九泰久慧混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011549</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>九泰久慧混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>69.65</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
+++ b/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5099,4 +5100,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>35</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
+++ b/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5108,7 +5109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5119,17 +5120,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5139,14 +5160,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>25</v>
-      </c>
-      <c r="D2" t="n">
-        <v>7.11</v>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3912</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5155,14 +5198,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>30</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.75</v>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.86</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6821</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5171,14 +5236,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" t="n">
-        <v>8.630000000000001</v>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5926</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -5187,13 +5274,683 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.25</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4276</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3804</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>50.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1443</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>50.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012545</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008773</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银景泰回报混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>33.74</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>80.43</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008342</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008343</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>九泰科鑫策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012546</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富荣福银混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.85</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>30</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>35</v>
+      </c>
+      <c r="D5" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>27</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>6.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
+++ b/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5849,7 +5850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5860,17 +5861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5880,14 +5901,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.800000000000001</v>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>51.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6120</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5896,14 +5939,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.11</v>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0206</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5912,14 +5977,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>13.75</v>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.6247</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -5928,14 +6015,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>35</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.630000000000001</v>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.33</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.4531</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5944,13 +6053,547 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.4437</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5014</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源中证大农业指数增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1237</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>61.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1199</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0988</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0549</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006712</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006713</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源MSCI中国A股消费指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>35</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>27</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>6.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
+++ b/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6476,7 +6477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6487,17 +6488,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6507,14 +6528,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>15</v>
-      </c>
-      <c r="D2" t="n">
-        <v>10.56</v>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6523,14 +6566,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>8.800000000000001</v>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6539,14 +6604,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.11</v>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7957</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6555,14 +6642,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>13.75</v>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1907</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -6571,14 +6680,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>35</v>
-      </c>
-      <c r="D6" t="n">
-        <v>8.630000000000001</v>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -6587,13 +6718,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8.800000000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>30</v>
+      </c>
+      <c r="D6" t="n">
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>27</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>6.84</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
+++ b/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>11</v>
       </c>
       <c r="D2" t="n">
-        <v>10.97</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>10.56</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
-        <v>8.800000000000001</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>7.11</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D6" t="n">
-        <v>13.75</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" t="n">
-        <v>8.630000000000001</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>27</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>6.84</v>
       </c>
     </row>
@@ -661,31 +678,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+          <t>交银施罗德品质增长一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.15</t>
+          <t>49.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.36</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4732</t>
+          <t>2.8797</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -704,26 +721,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.22</t>
+          <t>36.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.75</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3221</t>
+          <t>2.0944</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>34.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.01</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7957</t>
+          <t>1.9974</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -780,26 +797,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.53</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.72</t>
+          <t>86.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1907</t>
+          <t>1.3383</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -813,7 +830,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德品质升级混合</t>
+          <t>交银施罗德品质升级混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -823,21 +840,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.54</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0979</t>
+          <t>1.0942</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519710</t>
+          <t>013882</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德策略回报灵活配置混合</t>
+          <t>交银施罗德品质升级混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.66</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4308</t>
+          <t>0.4451</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013882</t>
+          <t>519710</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银施罗德品质升级混合C</t>
+          <t>交银施罗德策略回报灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.54</t>
+          <t>79.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3787</t>
+          <t>0.4130</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -927,31 +944,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+          <t>交银施罗德品质增长一年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.36</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1595</t>
+          <t>0.1379</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -965,31 +982,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>富国中证体育产业指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0822</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -998,36 +1015,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>013278</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>富国中证体育产业指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.0217</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1036,36 +1053,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013278</t>
+          <t>007943</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数C</t>
+          <t>富安达中证 500 指数增强</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1074,6 +1091,480 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7957</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1907</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1699,7 +2190,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2439,7 +2930,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3445,7 +3936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4639,7 +5130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6011,7 +6502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
+++ b/数据整理/stocks/A股/创业板/300146-汤臣倍健.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>10.51</v>
+        <v>14.05</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>10.97</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>10.56</v>
+        <v>10.97</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D5" t="n">
-        <v>8.800000000000001</v>
+        <v>10.56</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D6" t="n">
-        <v>7.11</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" t="n">
-        <v>13.75</v>
+        <v>7.11</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D8" t="n">
-        <v>8.630000000000001</v>
+        <v>13.75</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1112 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>35</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8.630000000000001</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>27</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>6.84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001178</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源再融资主题精选股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008188</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源稳健增长三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>58.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.1339</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7680</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5058</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4390</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006775</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源优质成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>56.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4048</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3189</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1936</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富荣福锦混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006216</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1827</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002407</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源恒远灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>44.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1289</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002666</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002005</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>工银瑞信新得利混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.86</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000978</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城量化精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008757</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001940</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>农银汇理现代农业加灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0541</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008758</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>九泰聚鑫混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>37.68</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006217</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源价值成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>46.24</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0451</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>006682</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>景顺长城中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>165528</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信诚鼎利灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.05</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0294</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005444</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>51.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002667</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源沪港深创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +1721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -683,26 +1782,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>49.48</t>
+          <t>51.57</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.8797</t>
+          <t>3.4191</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1810,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010454</t>
+          <t>519714</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银施罗德内需增长一年持有期混合</t>
+          <t>交银施罗德消费新驱动股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.11</t>
+          <t>39.23</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.41</t>
+          <t>88.65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.0944</t>
+          <t>2.6009</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1848,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519714</t>
+          <t>010454</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银施罗德消费新驱动股票</t>
+          <t>交银施罗德内需增长一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>34.98</t>
+          <t>38.24</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>89.92</t>
+          <t>91.29</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.9974</t>
+          <t>2.5353</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1886,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>004868</t>
+          <t>005004</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>交银施罗德股息优化混合</t>
+          <t>交银施罗德品质升级混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.52</t>
+          <t>27.31</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>86.53</t>
+          <t>88.42</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.69</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.3383</t>
+          <t>1.8079</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +1924,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005004</t>
+          <t>004868</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德品质升级混合A</t>
+          <t>交银施罗德股息优化混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>18.93</t>
+          <t>24.48</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>90.05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0942</t>
+          <t>1.6206</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -873,26 +1972,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.70</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>90.92</t>
+          <t>88.42</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.78</t>
+          <t>6.62</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4451</t>
+          <t>0.5832</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -911,26 +2010,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.77</t>
+          <t>7.64</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.44</t>
+          <t>72.72</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>6.10</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.4130</t>
+          <t>0.4607</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +2038,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012583</t>
+          <t>160211</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银施罗德品质增长一年持有期混合C</t>
+          <t>国泰中小盘成长混合（LOF）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.37</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>93.45</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1379</t>
+          <t>0.1667</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +2076,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>161030</t>
+          <t>012583</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数A</t>
+          <t>交银施罗德品质增长一年持有期混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.59</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>91.53</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0822</t>
+          <t>0.1611</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +2114,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>013278</t>
+          <t>000780</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数C</t>
+          <t>鹏华医疗保健股票</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>94.00</t>
+          <t>82.95</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.1340</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +2152,832 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>007943</t>
+          <t>005165</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富安达中证 500 指数增强</t>
+          <t>富荣福锦混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>92.61</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0028</t>
+          <t>0.1171</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0893</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>016285</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙头优势混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>58.20</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013878</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>016286</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙头优势混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>58.20</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013879</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>圆信永丰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005164</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富荣福锦混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21.02</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012926</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012927</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>民生加银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>60.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>014538</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.51</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1152,31 +3047,31 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+          <t>交银施罗德品质增长一年持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>63.15</t>
+          <t>49.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.36</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.4732</t>
+          <t>2.8797</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1195,26 +3090,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>42.22</t>
+          <t>36.11</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.75</t>
+          <t>93.41</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.80</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.3221</t>
+          <t>2.0944</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1233,26 +3128,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>30.96</t>
+          <t>34.98</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>83.01</t>
+          <t>89.92</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1.7957</t>
+          <t>1.9974</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -1271,26 +3166,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>20.53</t>
+          <t>23.52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>83.72</t>
+          <t>86.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1.1907</t>
+          <t>1.3383</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1304,7 +3199,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>交银施罗德品质升级混合</t>
+          <t>交银施罗德品质升级混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1314,21 +3209,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.54</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.0979</t>
+          <t>1.0942</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1337,36 +3232,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>519710</t>
+          <t>013882</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德策略回报灵活配置混合</t>
+          <t>交银施罗德品质升级混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.44</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>77.66</t>
+          <t>90.92</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.79</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4308</t>
+          <t>0.4451</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1375,36 +3270,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>013882</t>
+          <t>519710</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银施罗德品质升级混合C</t>
+          <t>交银施罗德策略回报灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>6.53</t>
+          <t>6.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>83.54</t>
+          <t>79.44</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>5.80</t>
+          <t>6.10</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3787</t>
+          <t>0.4130</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1418,31 +3313,31 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+          <t>交银施罗德品质增长一年持有期混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>88.36</t>
+          <t>93.45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>5.50</t>
+          <t>5.82</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.1595</t>
+          <t>0.1379</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1456,31 +3351,31 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数</t>
+          <t>富国中证体育产业指数A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.81</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0880</t>
+          <t>0.0822</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1489,36 +3384,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>004351</t>
+          <t>013278</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>汇丰晋信珠三角区域发展混合</t>
+          <t>富国中证体育产业指数C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>94.00</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.0217</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1527,36 +3422,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>013278</t>
+          <t>007943</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>富国中证体育产业指数C</t>
+          <t>富安达中证 500 指数增强</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0180</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1565,6 +3460,480 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012582</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>63.15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.4732</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银施罗德内需增长一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.3221</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.7957</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1907</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0979</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4308</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013882</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3787</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>012583</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>交银施罗德品质增长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>161030</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0880</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004351</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇丰晋信珠三角区域发展混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013278</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证体育产业指数C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2190,7 +4559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2930,7 +5299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3936,7 +6305,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5130,7 +7499,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6500,1086 +8869,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001178</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>前海开源再融资主题精选股票</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>27.78</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>80.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>6.60</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8335</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>008188</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>前海开源稳健增长三年持有期混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>28.78</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>58.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.94</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.1339</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519714</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银施罗德消费新驱动股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>84.94</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.7680</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005004</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银施罗德品质升级混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.53</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.83</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.93</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5058</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004868</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>交银施罗德股息优化混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.39</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.81</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4390</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006775</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>前海开源优质成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>8.21</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>56.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.4048</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519710</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>交银施罗德策略回报灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>5.36</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>77.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3189</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005164</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>富荣福锦混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1936</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>005165</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>富荣福锦混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.71</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1901</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006216</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1827</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002407</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源恒远灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>44.60</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1289</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>161030</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>富国中证体育产业指数</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.94</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0957</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002666</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0924</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002005</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>工银瑞信新得利混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.99</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.86</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0918</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>000978</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>景顺长城量化精选股票</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>5.79</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>85.04</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.46</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0845</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>008757</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>九泰聚鑫混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.24</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>37.68</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>001940</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>农银汇理现代农业加灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>93.28</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0541</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>008758</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>九泰聚鑫混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3.02</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>37.68</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0516</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006217</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>前海开源价值成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>46.24</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.52</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0451</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006682</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>景顺长城中证500指数增强</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2.66</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>93.84</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0399</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>007994</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0296</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>165528</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>信诚鼎利灵活配置混合（LOF）</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>80.05</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0294</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>005444</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>光大保德信多策略精选18个月定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>51.25</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>160616</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0203</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>007995</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>华夏中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.87</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.21</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002667</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>前海开源沪港深创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>43.11</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>006938</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.95</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0034</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>